--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>LTS</t>
+  </si>
+  <si>
+    <t>2018.03.05</t>
+  </si>
+  <si>
+    <t>11:57:07</t>
+  </si>
+  <si>
+    <t>12:00:40</t>
+  </si>
+  <si>
+    <t>13:44:08</t>
+  </si>
+  <si>
+    <t>13:48:20</t>
+  </si>
+  <si>
+    <t>14:07:39</t>
   </si>
 </sst>
 </file>
@@ -390,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -528,6 +546,196 @@
         <v>0.02438690027853048</v>
       </c>
     </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3495</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.62626262626263</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7014028056112225</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>31.1623246492986</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>31.1623246492986</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>14:07:39</t>
+  </si>
+  <si>
+    <t>14:23:00</t>
+  </si>
+  <si>
+    <t>14:32:32</t>
+  </si>
+  <si>
+    <t>14:45:58</t>
+  </si>
+  <si>
+    <t>14:47:22</t>
   </si>
 </sst>
 </file>
@@ -408,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -736,6 +748,158 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>31.1623246492986</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.1623246492986</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3495</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.51515151515151</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31.1623246492986</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>14:47:22</t>
+  </si>
+  <si>
+    <t>2018.03.08</t>
+  </si>
+  <si>
+    <t>17:47:10</t>
+  </si>
+  <si>
+    <t>LeechT</t>
+  </si>
+  <si>
+    <t>17:47:36</t>
+  </si>
+  <si>
+    <t>17:47:43</t>
   </si>
 </sst>
 </file>
@@ -420,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -900,6 +915,120 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" t="n">
+        <v>310</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.501129396579542</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.03874718679669917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>310</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.501129396579542</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.03874718679669917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>300</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.501167055685228</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0387467700258398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,36 @@
   </si>
   <si>
     <t>17:47:43</t>
+  </si>
+  <si>
+    <t>2018.03.09</t>
+  </si>
+  <si>
+    <t>15:32:32</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>15:52:41</t>
+  </si>
+  <si>
+    <t>2018.03.28</t>
+  </si>
+  <si>
+    <t>14:40:02</t>
+  </si>
+  <si>
+    <t>14:40:03</t>
+  </si>
+  <si>
+    <t>2018.03.29</t>
+  </si>
+  <si>
+    <t>16:48:14</t>
+  </si>
+  <si>
+    <t>16:48:15</t>
   </si>
 </sst>
 </file>
@@ -435,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1029,6 +1059,310 @@
         <v>0.0387467700258398</v>
       </c>
     </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3495</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>37.67676767676767</v>
+      </c>
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3495</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>37.67676767676767</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>50</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3495</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>32.62626262626263</v>
+      </c>
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="n">
+        <v>50</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3495</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>32.62626262626263</v>
+      </c>
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" t="n">
+        <v>50</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3495</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>32.62626262626263</v>
+      </c>
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27.85571142284569</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11</v>
+      </c>
+      <c r="E22" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27.85571142284569</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3499</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27.85571142284569</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>16:48:15</t>
+  </si>
+  <si>
+    <t>2018.07.04</t>
+  </si>
+  <si>
+    <t>15:06:46</t>
+  </si>
+  <si>
+    <t>15:06:52</t>
+  </si>
+  <si>
+    <t>15:07:02</t>
   </si>
 </sst>
 </file>
@@ -465,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1363,6 +1375,120 @@
         <v>15</v>
       </c>
     </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>250</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3475</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="n">
+        <v>250</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3511</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>250</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3511</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>15:07:02</t>
+  </si>
+  <si>
+    <t>2018.08.21</t>
+  </si>
+  <si>
+    <t>16:54:25</t>
+  </si>
+  <si>
+    <t>16:56:36</t>
   </si>
 </sst>
 </file>
@@ -477,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1489,6 +1498,82 @@
         <v>15</v>
       </c>
     </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>250</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3475</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>250</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3475</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,36 @@
   </si>
   <si>
     <t>16:56:36</t>
+  </si>
+  <si>
+    <t>2018.08.23</t>
+  </si>
+  <si>
+    <t>19:03:56</t>
+  </si>
+  <si>
+    <t>19:17:27</t>
+  </si>
+  <si>
+    <t>2018.08.24</t>
+  </si>
+  <si>
+    <t>15:00:27</t>
+  </si>
+  <si>
+    <t>15:09:13</t>
+  </si>
+  <si>
+    <t>16:34:48</t>
+  </si>
+  <si>
+    <t>16:38:02</t>
+  </si>
+  <si>
+    <t>17:02:16</t>
+  </si>
+  <si>
+    <t>17:06:48</t>
   </si>
 </sst>
 </file>
@@ -486,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1574,6 +1604,310 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>250</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>250</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" t="n">
+        <v>250</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="n">
+        <v>250</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2965</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>250</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>250</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>250</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>250</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,51 @@
   </si>
   <si>
     <t>17:06:48</t>
+  </si>
+  <si>
+    <t>19:57:08</t>
+  </si>
+  <si>
+    <t>20:04:51</t>
+  </si>
+  <si>
+    <t>20:13:22</t>
+  </si>
+  <si>
+    <t>20:14:18</t>
+  </si>
+  <si>
+    <t>20:22:16</t>
+  </si>
+  <si>
+    <t>20:22:42</t>
+  </si>
+  <si>
+    <t>20:22:59</t>
+  </si>
+  <si>
+    <t>20:25:44</t>
+  </si>
+  <si>
+    <t>20:26:09</t>
+  </si>
+  <si>
+    <t>20:26:13</t>
+  </si>
+  <si>
+    <t>20:29:09</t>
+  </si>
+  <si>
+    <t>20:29:39</t>
+  </si>
+  <si>
+    <t>20:33:40</t>
+  </si>
+  <si>
+    <t>20:33:43</t>
+  </si>
+  <si>
+    <t>20:33:51</t>
   </si>
 </sst>
 </file>
@@ -516,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1908,6 +1953,576 @@
         <v>15</v>
       </c>
     </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>250</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>250</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>250</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>250</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>250</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>250</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>250</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>250</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>250</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>250</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>250</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>250</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
+        <v>31.51515151515151</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.01574766423669356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10</v>
+      </c>
+      <c r="E49" t="n">
+        <v>250</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>250</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>250</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>20:33:51</t>
+  </si>
+  <si>
+    <t>2018.08.27</t>
+  </si>
+  <si>
+    <t>16:25:47</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -2523,6 +2529,44 @@
         <v>15</v>
       </c>
     </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10</v>
+      </c>
+      <c r="E52" t="n">
+        <v>250</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/tmp/log_ESTIM.xlsx
+++ b/tmp/log_ESTIM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -245,6 +245,54 @@
   </si>
   <si>
     <t>16:25:47</t>
+  </si>
+  <si>
+    <t>2018.08.30</t>
+  </si>
+  <si>
+    <t>15:39:37</t>
+  </si>
+  <si>
+    <t>15:39:38</t>
+  </si>
+  <si>
+    <t>15:39:40</t>
+  </si>
+  <si>
+    <t>15:39:42</t>
+  </si>
+  <si>
+    <t>15:41:38</t>
+  </si>
+  <si>
+    <t>15:43:46</t>
+  </si>
+  <si>
+    <t>16:17:22</t>
+  </si>
+  <si>
+    <t>16:17:24</t>
+  </si>
+  <si>
+    <t>16:17:25</t>
+  </si>
+  <si>
+    <t>16:17:26</t>
+  </si>
+  <si>
+    <t>16:20:10</t>
+  </si>
+  <si>
+    <t>17:00:29</t>
+  </si>
+  <si>
+    <t>17:03:39</t>
+  </si>
+  <si>
+    <t>17:03:42</t>
+  </si>
+  <si>
+    <t>17:03:46</t>
   </si>
 </sst>
 </file>
@@ -567,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -2567,6 +2615,576 @@
         <v>15</v>
       </c>
     </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
+      </c>
+      <c r="E53" t="n">
+        <v>250</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>681</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" t="n">
+        <v>250</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>254</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
+      </c>
+      <c r="E55" t="n">
+        <v>250</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>343</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
+      </c>
+      <c r="E56" t="n">
+        <v>250</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H56" t="n">
+        <v>725</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>49.54912798466926</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.01021924049293189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
+      </c>
+      <c r="E57" t="n">
+        <v>250</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>681</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0266</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="n">
+        <v>250</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>681</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>250</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>681</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0276</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E60" t="n">
+        <v>250</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>45</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>250</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>681</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="n">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>250</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>544</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.0256</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>112.622406108482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="n">
+        <v>10</v>
+      </c>
+      <c r="E63" t="n">
+        <v>250</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>681</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10</v>
+      </c>
+      <c r="E64" t="n">
+        <v>250</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>681</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>250</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>681</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>35.30099402320572</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.01523220108113661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>250</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H66" t="n">
+        <v>793</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>36.523440888569</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01617273454703009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>250</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="H67" t="n">
+        <v>814</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0271</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>38.21998138918514</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.01462097067859595</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
